--- a/data/trans_camb/IP1006-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1006-Edad-trans_camb.xlsx
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-0,18</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,76</t>
+          <t>-0,66; 1,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 0,0</t>
+          <t>-1,08; 0,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 0,53</t>
+          <t>-1,39; 0,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,15</t>
+          <t>-1,4; 0,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 0,96</t>
+          <t>-0,73; 0,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 0,43</t>
+          <t>-0,92; 0,35</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>83,62%</t>
+          <t>78,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-20,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-48,65%</t>
+          <t>-47,14%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>-55,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,29%</t>
+          <t>-0,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-44,54%</t>
+          <t>-42,22%</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-78,87; 711,9</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,22</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,13</t>
+          <t>-0,75; 1,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 0,51</t>
+          <t>-1,73; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 0,6</t>
+          <t>-1,02; 0,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 0,46</t>
+          <t>-1,01; 1,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 0,7</t>
+          <t>-0,62; 0,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 0,35</t>
+          <t>-0,87; 0,43</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>78,45%</t>
+          <t>83,62%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-20,33%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-47,14%</t>
+          <t>-48,65%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-55,09%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,79%</t>
+          <t>19,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-42,22%</t>
+          <t>-44,54%</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-78,87; 711,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">

--- a/data/trans_camb/IP1006-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1006-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,17 +616,17 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,29</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,41</t>
+          <t>0,0; 2,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,04</t>
+          <t>0,0; 2,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,17 +654,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,23</t>
+          <t>0,0; 1,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,25</t>
+          <t>0,0; 1,95</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>0,02</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,13</t>
+          <t>-0,27; 2,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 0,51</t>
+          <t>-0,57; 1,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 0,6</t>
+          <t>-1,56; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 0,46</t>
+          <t>-1,0; 0,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 0,7</t>
+          <t>-0,4; 0,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 0,35</t>
+          <t>-0,61; 0,59</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>78,45%</t>
+          <t>289,64%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-20,33%</t>
+          <t>80,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-47,14%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-55,09%</t>
+          <t>-44,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,79%</t>
+          <t>53,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-42,22%</t>
+          <t>4,97%</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-0,11</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,76</t>
+          <t>-2,55; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 0,0</t>
+          <t>-2,06; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 0,53</t>
+          <t>0,0; 2,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,15</t>
+          <t>0,0; 1,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 0,96</t>
+          <t>-0,85; 0,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 0,43</t>
+          <t>-1,07; 0,32</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>83,62%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -999,22 +999,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-48,65%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>19,29%</t>
+          <t>-18,35%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-44,54%</t>
+          <t>-40,6%</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-78,87; 711,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,07</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 1,22</t>
+          <t>-0,23; 3,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 0,42</t>
+          <t>-2,03; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,28</t>
+          <t>-1,41; 0,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 0,53</t>
+          <t>-1,05; 1,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 0,59</t>
+          <t>-0,57; 1,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 0,37</t>
+          <t>-0,82; 0,84</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>170,87%</t>
+          <t>315,85%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-7,64%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-48,35%</t>
+          <t>-44,32%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>51,39%</t>
+          <t>77,3%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-1,84%</t>
+          <t>-13,18%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-54,75; 1173,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1203,23 +1203,187 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-41,77; 337,14</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-71,43; 237,81</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 1,18</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 0,37</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,67; 0,21</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-0,48; 0,52</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 0,58</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,36; 0,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>170,87%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-7,64%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-48,35%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2,96%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>51,39%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-1,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-49,05; 1179,96</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-84,57; 624,99</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-44,63; 367,92</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-71,5; 196,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP1006-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1006-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,03</t>
+          <t>0,0; 2,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,99</t>
+          <t>0,0; 3,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,02</t>
+          <t>0,0; 1,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,95</t>
+          <t>0,0; 1,46</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 2,12</t>
+          <t>-0,24; 2,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,2</t>
+          <t>-0,57; 0,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 0,0</t>
+          <t>-1,47; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 0,56</t>
+          <t>-1,04; 0,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 0,94</t>
+          <t>-0,4; 0,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 0,59</t>
+          <t>-0,53; 0,65</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 787,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 0,0</t>
+          <t>-2,53; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -961,17 +961,17 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,29</t>
+          <t>0,0; 2,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,6</t>
+          <t>0,0; 1,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 0,65</t>
+          <t>-1,07; 0,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 3,86</t>
+          <t>-0,15; 3,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 0,0</t>
+          <t>-1,88; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 0,82</t>
+          <t>-1,68; 0,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1,97</t>
+          <t>-1,05; 2,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,57</t>
+          <t>-0,49; 1,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 0,84</t>
+          <t>-0,86; 0,83</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 1,18</t>
+          <t>-0,13; 1,31</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 0,37</t>
+          <t>-0,59; 0,37</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 0,21</t>
+          <t>-0,69; 0,21</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,52</t>
+          <t>-0,54; 0,52</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 0,58</t>
+          <t>-0,19; 0,59</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 0,31</t>
+          <t>-0,32; 0,35</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-49,05; 1179,96</t>
+          <t>-53,21; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1354,17 +1354,17 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-84,57; 624,99</t>
+          <t>-90,0; 443,79</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-44,63; 367,92</t>
+          <t>-47,17; 359,91</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-71,5; 196,19</t>
+          <t>-70,79; 242,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1006-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1006-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -601,22 +601,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,4</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>0,6</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,0</t>
+          <t>0,0; 1,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,46</t>
+          <t>0,0; 1,86</t>
         </is>
       </c>
     </row>
@@ -677,22 +677,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-0,46</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,78</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>0,22</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,46</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 2,15</t>
+          <t>-1,43; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 0,98</t>
+          <t>-1,13; 0,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 0,0</t>
+          <t>-0,27; 2,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 0,56</t>
+          <t>-0,57; 0,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 0,95</t>
+          <t>-0,37; 1,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 0,65</t>
+          <t>-0,58; 0,65</t>
         </is>
       </c>
     </row>
@@ -833,22 +833,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-44,7%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>289,64%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>80,78%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-44,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 787,55</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -913,22 +913,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>-0,51</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>-0,51</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,32</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -951,27 +951,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 0,0</t>
+          <t>0,0; 2,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 0,0</t>
+          <t>0,0; 1,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,2</t>
+          <t>-2,54; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,61</t>
+          <t>-2,56; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 0,44</t>
+          <t>-0,82; 0,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -989,22 +989,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>1,06</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>-0,34</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,46</t>
+          <t>-1,39; 0,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 0,0</t>
+          <t>-1,04; 2,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,81</t>
+          <t>-0,28; 3,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,18</t>
+          <t>-1,68; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,78</t>
+          <t>-0,48; 1,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,83</t>
+          <t>-0,84; 0,87</t>
         </is>
       </c>
     </row>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-44,32%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>28,03%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>315,85%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-44,32%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>28,03%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1225,22 +1225,22 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>0,5</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>-0,02</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,18</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 1,31</t>
+          <t>-0,66; 0,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 0,37</t>
+          <t>-0,5; 0,53</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 0,21</t>
+          <t>-0,14; 1,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 0,52</t>
+          <t>-0,51; 0,42</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 0,59</t>
+          <t>-0,18; 0,59</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,35</t>
+          <t>-0,33; 0,37</t>
         </is>
       </c>
     </row>
@@ -1301,22 +1301,22 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-48,35%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2,96%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>170,87%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>-7,64%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-48,35%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>2,96%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-53,21; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1349,22 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,75; 1173,73</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-90,0; 443,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-47,17; 359,91</t>
+          <t>-41,77; 337,14</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-70,79; 242,25</t>
+          <t>-71,43; 237,81</t>
         </is>
       </c>
     </row>
